--- a/RecentWeekAlert_Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/RecentWeekAlert_Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
   <si>
     <t>status</t>
   </si>
@@ -70,15 +70,24 @@
     <t>suspected</t>
   </si>
   <si>
-    <t>INC2 Tower B</t>
-  </si>
-  <si>
     <t>ตลาดหมู่บ้านศรีทอง จ.อยุธยา</t>
   </si>
   <si>
     <t xml:space="preserve">รามอินทรา </t>
   </si>
   <si>
+    <t>บ่อนไก่ชนใน ต.บางเลน</t>
+  </si>
+  <si>
+    <t>ห้างสรรพสินค้ายูเนียนมอลล์</t>
+  </si>
+  <si>
+    <t>เซ็นทรัลลาดพร้าว</t>
+  </si>
+  <si>
+    <t>ตลาดชาวสยาม บางกรวย</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -94,6 +103,18 @@
     <t>ตลาดหนองเสือ</t>
   </si>
   <si>
+    <t>แพกุ้ง ในหมู่บ้านไผ่คอย ตำบลสระสี่มุม อำเภอกำแพงแสน</t>
+  </si>
+  <si>
+    <t>คาเฟ่แห่งหนึ่งใน จ.นนทบุรี</t>
+  </si>
+  <si>
+    <t>ตลาดการ์เด้นตรงข้ามซอยแก้วอินทร์</t>
+  </si>
+  <si>
+    <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
+  </si>
+  <si>
     <t>Lamptitude สาขาเอกมัย</t>
   </si>
   <si>
@@ -121,15 +142,18 @@
     <t>unknown</t>
   </si>
   <si>
-    <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาปฏิบัติงานที่นี่วันที่ 16-17 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
-  </si>
-  <si>
     <t>พบผู้ป่วยติดเชื้อโควิด-19 ไม่มีอาการ จำนวน 1 ราย เป็นหญิง เดินทางกลับมาจากการไปทำงานที่ร้านเสริมสวยใน จ.เชียงใหม่</t>
   </si>
   <si>
     <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
   </si>
   <si>
+    <t>พบผู้ป่วยโควิด-19 ชาย มาบ่อนไก่ชนในบางเลน</t>
+  </si>
+  <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย</t>
+  </si>
+  <si>
     <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
   </si>
   <si>
@@ -145,6 +169,15 @@
     <t>เจ้าของร้านอาหารที่ติดโควิดได้ไปขายเนื้อสดที่ตลาด</t>
   </si>
   <si>
+    <t>เคสผู้ป่วยโควิด-19 ชาย อยู่ต.บางหลวง อ.บางเลน จ.นครปฐม</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ได้ออกมาเลือกตั้งหน้าหมู่บ้านและซื้อต้นไม้ ผู้ขายเป็นชาวพม่า</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20</t>
+  </si>
+  <si>
     <t>พนักงาน Lamptitude ติดเชื้อหลังจากกลับจากกระบี่ และเข้ามาที่นี่ตั้งแต่วันที่ 14-22 ธ.ค.</t>
   </si>
   <si>
@@ -160,21 +193,24 @@
     <t>บมจ.กรุงเทพประกันภัย (BKI) แจ้งว่า พบพนักงานของ บมจ.ไอโออิ กรุงเทพประกันภัย จำกัด ซึ่งเป็นบริษัทผู้เช่าในอาคารกรุงเทพประกันภัย 1 รายติดเชื้อโควิด-19 ซึ่งผู้ติดเชื้อได้ทราบผลและการยืนยันจากแพทย์ว่าติดเชื้อโควิด-19 เมื่อวันที่ 22 ธ.ค.</t>
   </si>
   <si>
-    <t>พบแม่ค้าอยุธยาเดินทางมาซื้ออาหารทะเลที่นี่และติดเชื่อโควิด-19</t>
+    <t>พบแม่ค้าอยุธยาเดินทางมาซื้ออาหารทะเลที่นี่และตรวจพบเชื้อโควิด-19ภายหลัง</t>
   </si>
   <si>
     <t>แม่ค้าอาหารทะเล ติดเชื้อจากการเดินทางไปตลาดทะเลไทย จ.สมุทรสาคร</t>
   </si>
   <si>
-    <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
-  </si>
-  <si>
     <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
   </si>
   <si>
     <t>https://www.thairath.co.th/news/local/central/1999153</t>
   </si>
   <si>
+    <t>https://mgronline.com/local/detail/9630000130818</t>
+  </si>
+  <si>
+    <t>https://www.khaosod.co.th/breaking-news/news_5591909</t>
+  </si>
+  <si>
     <t>https://www.thaipost.net/main/detail/87367</t>
   </si>
   <si>
@@ -188,6 +224,9 @@
   </si>
   <si>
     <t>https://www.thairath.co.th/news/local/central/1998795?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0&amp;cx_rec_section=news&amp;cx_rec_topic=local#cxrecs_s</t>
+  </si>
+  <si>
+    <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
   </si>
   <si>
     <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B1%E0%B8%87%E0%B8%84%E0%B8%A1/138884</t>
@@ -580,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -632,22 +671,22 @@
         <v>13</v>
       </c>
       <c r="B2" s="2">
-        <v>44182</v>
+        <v>44184</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2">
-        <v>14.0782451</v>
+        <v>14.1487352</v>
       </c>
       <c r="E2">
-        <v>100.604118</v>
+        <v>100.6155778</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="s">
+        <v>40</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -656,21 +695,21 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="M2">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2">
         <v>44184</v>
@@ -679,16 +718,16 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>14.1487352</v>
+        <v>13.8057625</v>
       </c>
       <c r="E3">
-        <v>100.6155778</v>
+        <v>100.6621959</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>33</v>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -697,16 +736,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M3">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -720,10 +759,10 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>13.8057625</v>
+        <v>14.01215068</v>
       </c>
       <c r="E4">
-        <v>100.6621959</v>
+        <v>100.17523</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -738,33 +777,33 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M4">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5">
-        <v>13.5579068</v>
+        <v>13.8134088</v>
       </c>
       <c r="E5">
-        <v>100.270829</v>
+        <v>100.5616103</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -779,33 +818,33 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="M5">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6">
-        <v>13.7937004</v>
+        <v>13.816493</v>
       </c>
       <c r="E6">
-        <v>100.6923144</v>
+        <v>100.5610062</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -820,33 +859,33 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M6">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7">
-        <v>13.5455607</v>
+        <v>13.7966595</v>
       </c>
       <c r="E7">
-        <v>100.2767611</v>
+        <v>100.4755856</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -861,21 +900,21 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>44185</v>
@@ -884,10 +923,10 @@
         <v>24</v>
       </c>
       <c r="D8">
-        <v>13.7204469</v>
+        <v>13.5579068</v>
       </c>
       <c r="E8">
-        <v>100.5004708</v>
+        <v>100.270829</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -902,33 +941,33 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>44185</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>14.3355326</v>
+        <v>13.7937004</v>
       </c>
       <c r="E9">
-        <v>100.87017</v>
+        <v>100.6923144</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -943,33 +982,33 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>44185</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>14.5786407</v>
+        <v>13.5455607</v>
       </c>
       <c r="E10">
-        <v>100.9662444</v>
+        <v>100.2767611</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -984,33 +1023,33 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
         <v>44185</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>14.5116599</v>
+        <v>13.7204469</v>
       </c>
       <c r="E11">
-        <v>100.9094134</v>
+        <v>100.5004708</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1025,33 +1064,33 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>44185</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>14.1378761</v>
+        <v>14.3355326</v>
       </c>
       <c r="E12">
-        <v>100.8255049</v>
+        <v>100.87017</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1066,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1083,16 +1122,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>13.73541413</v>
+        <v>14.5786407</v>
       </c>
       <c r="E13">
-        <v>100.5877998</v>
+        <v>100.9662444</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1107,16 +1146,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1124,16 +1163,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14">
-        <v>13.78766192</v>
+        <v>14.5116599</v>
       </c>
       <c r="E14">
-        <v>100.5105938</v>
+        <v>100.9094134</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1148,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1165,16 +1204,16 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
       </c>
       <c r="D15">
-        <v>13.5951449</v>
+        <v>14.1378761</v>
       </c>
       <c r="E15">
-        <v>100.5802135</v>
+        <v>100.8255049</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1189,33 +1228,33 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16">
-        <v>13.7462524</v>
+        <v>14.06566869</v>
       </c>
       <c r="E16">
-        <v>100.5328635</v>
+        <v>99.9821468</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1230,33 +1269,33 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
       </c>
       <c r="D17">
-        <v>13.7243591</v>
+        <v>13.8220818</v>
       </c>
       <c r="E17">
-        <v>100.5386589</v>
+        <v>100.4241012</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1271,33 +1310,33 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18">
-        <v>13.54974685</v>
+        <v>13.8683169</v>
       </c>
       <c r="E18">
-        <v>100.2561435</v>
+        <v>100.4107308</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1312,57 +1351,344 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
       <c r="D19">
+        <v>13.8781452</v>
+      </c>
+      <c r="E19">
+        <v>100.4091302</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44187</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>13.73541413</v>
+      </c>
+      <c r="E20">
+        <v>100.5877998</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44187</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <v>13.78766192</v>
+      </c>
+      <c r="E21">
+        <v>100.5105938</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44187</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>13.5951449</v>
+      </c>
+      <c r="E22">
+        <v>100.5802135</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44188</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <v>13.7462524</v>
+      </c>
+      <c r="E23">
+        <v>100.5328635</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M23">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44188</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24">
+        <v>13.7243591</v>
+      </c>
+      <c r="E24">
+        <v>100.5386589</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44188</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25">
+        <v>13.54974685</v>
+      </c>
+      <c r="E25">
+        <v>100.2561435</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44188</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26">
         <v>14.45160513</v>
       </c>
-      <c r="E19">
+      <c r="E26">
         <v>100.7230585</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M19">
-        <v>52</v>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="M26">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1377,14 +1703,21 @@
     <hyperlink ref="L9" r:id="rId8"/>
     <hyperlink ref="L10" r:id="rId9"/>
     <hyperlink ref="L11" r:id="rId10"/>
-    <hyperlink ref="L12" r:id="rId11" location="cxrecs_s"/>
+    <hyperlink ref="L12" r:id="rId11"/>
     <hyperlink ref="L13" r:id="rId12"/>
     <hyperlink ref="L14" r:id="rId13"/>
-    <hyperlink ref="L15" r:id="rId14"/>
+    <hyperlink ref="L15" r:id="rId14" location="cxrecs_s"/>
     <hyperlink ref="L16" r:id="rId15"/>
     <hyperlink ref="L17" r:id="rId16"/>
     <hyperlink ref="L18" r:id="rId17"/>
     <hyperlink ref="L19" r:id="rId18"/>
+    <hyperlink ref="L20" r:id="rId19"/>
+    <hyperlink ref="L21" r:id="rId20"/>
+    <hyperlink ref="L22" r:id="rId21"/>
+    <hyperlink ref="L23" r:id="rId22"/>
+    <hyperlink ref="L24" r:id="rId23"/>
+    <hyperlink ref="L25" r:id="rId24"/>
+    <hyperlink ref="L26" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RecentWeekAlert_Data🔥/xlsx/covid-tracker-week.xlsx
+++ b/RecentWeekAlert_Data🔥/xlsx/covid-tracker-week.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
   <si>
     <t>status</t>
   </si>
@@ -55,12 +55,12 @@
     <t>id</t>
   </si>
   <si>
+    <t>unspecified_location</t>
+  </si>
+  <si>
     <t>patient_has_been_here</t>
   </si>
   <si>
-    <t>unspecified_location</t>
-  </si>
-  <si>
     <t>confirmed</t>
   </si>
   <si>
@@ -70,6 +70,12 @@
     <t>suspected</t>
   </si>
   <si>
+    <t>sanitized</t>
+  </si>
+  <si>
+    <t>ซ.รุ่งเรือง 5 บางบัวทอง</t>
+  </si>
+  <si>
     <t>ตลาดหมู่บ้านศรีทอง จ.อยุธยา</t>
   </si>
   <si>
@@ -106,7 +112,7 @@
     <t>แพกุ้ง ในหมู่บ้านไผ่คอย ตำบลสระสี่มุม อำเภอกำแพงแสน</t>
   </si>
   <si>
-    <t>คาเฟ่แห่งหนึ่งใน จ.นนทบุรี</t>
+    <t>Two Do Someting จ.นนทบุรี</t>
   </si>
   <si>
     <t>ตลาดการ์เด้นตรงข้ามซอยแก้วอินทร์</t>
@@ -142,6 +148,9 @@
     <t>unknown</t>
   </si>
   <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย วันที่ 14-18 ธค. เวลา 17.00-21.00 น. จะทำงานร้านขายของชำ ซ.รุ่งเรือง 5 บางบัวทอง</t>
+  </si>
+  <si>
     <t>พบผู้ป่วยติดเชื้อโควิด-19 ไม่มีอาการ จำนวน 1 ราย เป็นหญิง เดินทางกลับมาจากการไปทำงานที่ร้านเสริมสวยใน จ.เชียงใหม่</t>
   </si>
   <si>
@@ -151,7 +160,10 @@
     <t>พบผู้ป่วยโควิด-19 ชาย มาบ่อนไก่ชนในบางเลน</t>
   </si>
   <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย</t>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 10.00 น. ไปห้างสรรพสินค้ายูเนียนมอลล์ และเดินข้ามมาเซ็นทรัลลาดพร้าว</t>
+  </si>
+  <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 20.00 น. ไปตลาดชาวสยาม บางกรวยพร้าว</t>
   </si>
   <si>
     <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
@@ -172,6 +184,9 @@
     <t>เคสผู้ป่วยโควิด-19 ชาย อยู่ต.บางหลวง อ.บางเลน จ.นครปฐม</t>
   </si>
   <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย  20 ธ.ค. เวลา 10.00 น. ไปคาเฟ่ Two Do Someting</t>
+  </si>
+  <si>
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ได้ออกมาเลือกตั้งหน้าหมู่บ้านและซื้อต้นไม้ ผู้ขายเป็นชาวพม่า</t>
   </si>
   <si>
@@ -199,6 +214,9 @@
     <t>แม่ค้าอาหารทะเล ติดเชื้อจากการเดินทางไปตลาดทะเลไทย จ.สมุทรสาคร</t>
   </si>
   <si>
+    <t>https://www.khaosod.co.th/breaking-news/news_5591909</t>
+  </si>
+  <si>
     <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
   </si>
   <si>
@@ -208,9 +226,6 @@
     <t>https://mgronline.com/local/detail/9630000130818</t>
   </si>
   <si>
-    <t>https://www.khaosod.co.th/breaking-news/news_5591909</t>
-  </si>
-  <si>
     <t>https://www.thaipost.net/main/detail/87367</t>
   </si>
   <si>
@@ -224,6 +239,9 @@
   </si>
   <si>
     <t>https://www.thairath.co.th/news/local/central/1998795?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0&amp;cx_rec_section=news&amp;cx_rec_topic=local#cxrecs_s</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/twodosomething/posts/140825121150938</t>
   </si>
   <si>
     <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
@@ -619,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,22 +689,22 @@
         <v>13</v>
       </c>
       <c r="B2" s="2">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>14.1487352</v>
+        <v>13.87779142</v>
       </c>
       <c r="E2">
-        <v>100.6155778</v>
+        <v>100.4215436</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>40</v>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -695,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M2">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -715,19 +733,19 @@
         <v>44184</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>13.8057625</v>
+        <v>14.1487352</v>
       </c>
       <c r="E3">
-        <v>100.6621959</v>
+        <v>100.6155778</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="G3" t="s">
+        <v>42</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -736,33 +754,33 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>44184</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>14.01215068</v>
+        <v>13.8057625</v>
       </c>
       <c r="E4">
-        <v>100.17523</v>
+        <v>100.6621959</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -777,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -797,13 +815,13 @@
         <v>44184</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>13.8134088</v>
+        <v>14.01215068</v>
       </c>
       <c r="E5">
-        <v>100.5616103</v>
+        <v>100.17523</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -818,33 +836,33 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>44184</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>13.816493</v>
+        <v>13.8134088</v>
       </c>
       <c r="E6">
-        <v>100.5610062</v>
+        <v>100.5616103</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -859,33 +877,33 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>44184</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>13.7966595</v>
+        <v>13.816493</v>
       </c>
       <c r="E7">
-        <v>100.4755856</v>
+        <v>100.5610062</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -900,33 +918,33 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M7">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>13.5579068</v>
+        <v>13.7966595</v>
       </c>
       <c r="E8">
-        <v>100.270829</v>
+        <v>100.4755856</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -941,33 +959,33 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2">
         <v>44185</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>13.7937004</v>
+        <v>13.5579068</v>
       </c>
       <c r="E9">
-        <v>100.6923144</v>
+        <v>100.270829</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -982,33 +1000,33 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
         <v>44185</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>13.5455607</v>
+        <v>13.7937004</v>
       </c>
       <c r="E10">
-        <v>100.2767611</v>
+        <v>100.6923144</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1023,33 +1041,33 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
         <v>44185</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>13.7204469</v>
+        <v>13.5455607</v>
       </c>
       <c r="E11">
-        <v>100.5004708</v>
+        <v>100.2767611</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1064,33 +1082,33 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M11">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
         <v>44185</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>14.3355326</v>
+        <v>13.7204469</v>
       </c>
       <c r="E12">
-        <v>100.87017</v>
+        <v>100.5004708</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1105,33 +1123,33 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M12">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
         <v>44185</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>14.5786407</v>
+        <v>14.3355326</v>
       </c>
       <c r="E13">
-        <v>100.9662444</v>
+        <v>100.87017</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1146,33 +1164,33 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M13">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>44185</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>14.5116599</v>
+        <v>14.5786407</v>
       </c>
       <c r="E14">
-        <v>100.9094134</v>
+        <v>100.9662444</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1187,33 +1205,33 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M14">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>44185</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>14.1378761</v>
+        <v>14.5116599</v>
       </c>
       <c r="E15">
-        <v>100.8255049</v>
+        <v>100.9094134</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1228,33 +1246,33 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M15">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
         <v>44185</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>14.06566869</v>
+        <v>14.1378761</v>
       </c>
       <c r="E16">
-        <v>99.9821468</v>
+        <v>100.8255049</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1269,16 +1287,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M16">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1289,13 +1307,13 @@
         <v>44185</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>13.8220818</v>
+        <v>14.06566869</v>
       </c>
       <c r="E17">
-        <v>100.4241012</v>
+        <v>99.9821468</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1310,33 +1328,33 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M17">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>44185</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>13.8683169</v>
+        <v>13.8220612</v>
       </c>
       <c r="E18">
-        <v>100.4107308</v>
+        <v>100.421874</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1351,33 +1369,33 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M18">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>13.8781452</v>
+        <v>13.8683169</v>
       </c>
       <c r="E19">
-        <v>100.4091302</v>
+        <v>100.4107308</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1392,16 +1410,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="M19">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1409,16 +1427,16 @@
         <v>13</v>
       </c>
       <c r="B20" s="2">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>13.73541413</v>
+        <v>13.8781452</v>
       </c>
       <c r="E20">
-        <v>100.5877998</v>
+        <v>100.4091302</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1433,33 +1451,33 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M20">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2">
         <v>44187</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>13.78766192</v>
+        <v>13.73541413</v>
       </c>
       <c r="E21">
-        <v>100.5105938</v>
+        <v>100.5877998</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1474,33 +1492,33 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K21" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M21">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2">
         <v>44187</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>13.5951449</v>
+        <v>13.78766192</v>
       </c>
       <c r="E22">
-        <v>100.5802135</v>
+        <v>100.5105938</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1515,33 +1533,33 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M22">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23">
-        <v>13.7462524</v>
+        <v>13.5951449</v>
       </c>
       <c r="E23">
-        <v>100.5328635</v>
+        <v>100.5802135</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1556,33 +1574,33 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M23">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2">
         <v>44188</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24">
-        <v>13.7243591</v>
+        <v>13.7462524</v>
       </c>
       <c r="E24">
-        <v>100.5386589</v>
+        <v>100.5328635</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1597,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M24">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1617,13 +1635,13 @@
         <v>44188</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D25">
-        <v>13.54974685</v>
+        <v>13.7243591</v>
       </c>
       <c r="E25">
-        <v>100.2561435</v>
+        <v>100.5386589</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1638,16 +1656,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M25">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1658,37 +1676,78 @@
         <v>44188</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D26">
+        <v>13.54974685</v>
+      </c>
+      <c r="E26">
+        <v>100.2561435</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M26">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44188</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27">
         <v>14.45160513</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>100.7230585</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26" t="s">
-        <v>60</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M26">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" t="s">
         <v>65</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M27">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1706,8 +1765,8 @@
     <hyperlink ref="L12" r:id="rId11"/>
     <hyperlink ref="L13" r:id="rId12"/>
     <hyperlink ref="L14" r:id="rId13"/>
-    <hyperlink ref="L15" r:id="rId14" location="cxrecs_s"/>
-    <hyperlink ref="L16" r:id="rId15"/>
+    <hyperlink ref="L15" r:id="rId14"/>
+    <hyperlink ref="L16" r:id="rId15" location="cxrecs_s"/>
     <hyperlink ref="L17" r:id="rId16"/>
     <hyperlink ref="L18" r:id="rId17"/>
     <hyperlink ref="L19" r:id="rId18"/>
@@ -1718,6 +1777,7 @@
     <hyperlink ref="L24" r:id="rId23"/>
     <hyperlink ref="L25" r:id="rId24"/>
     <hyperlink ref="L26" r:id="rId25"/>
+    <hyperlink ref="L27" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
